--- a/public/files/HDR IMPORT TEMPLATE.xlsx
+++ b/public/files/HDR IMPORT TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Puwy\Desktop\CODE\hdr\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\hdr\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAFECA-6B84-43C6-8CA1-EC5677DA8A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543884C-ED5E-454E-B038-7E8D6052765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{629B0A09-1545-48D2-A5CB-188AFB3B418B}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{629B0A09-1545-48D2-A5CB-188AFB3B418B}"/>
   </bookViews>
   <sheets>
     <sheet name="USE THIS" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>First Name</t>
   </si>
@@ -104,13 +104,141 @@
   </si>
   <si>
     <t>TIN</t>
+  </si>
+  <si>
+    <r>
+      <t>First Name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Last Name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Birthday</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Civil Status</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Contact</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: Columns that has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> indicator is required  </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +273,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,9 +352,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,8 +364,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,10 +694,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -554,7 +708,7 @@
     <col min="4" max="4" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -575,77 +729,77 @@
     <col min="25" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
+      <c r="F1" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -659,21 +813,21 @@
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
@@ -916,7 +1070,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -942,7 +1096,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -968,7 +1122,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -994,7 +1148,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1020,7 +1174,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1046,7 +1200,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1072,7 +1226,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1098,7 +1252,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1124,7 +1278,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1150,7 +1304,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1176,7 +1330,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1202,7 +1356,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1228,7 +1382,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1254,7 +1408,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1280,7 +1434,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1306,7 +1460,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1332,7 +1486,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1358,7 +1512,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1384,7 +1538,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1403,7 +1557,24 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
     </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A32:J32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
